--- a/azure-vm-availability/images/availability.xlsx
+++ b/azure-vm-availability/images/availability.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainaba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainaba\source\repos\ainaba-csa-blog\azure-vm-availability\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B933D16-ABE9-4974-BF16-586BBC3A034D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10620"/>
+    <workbookView xWindow="48480" yWindow="9690" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>N</t>
     <phoneticPr fontId="2"/>
@@ -53,16 +64,53 @@
     <t>1-a</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Availability</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StandardHDD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Standard SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Premium SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Availavility Sets</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Availablitiy Zone</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>More</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="182" formatCode="0.000%"/>
-    <numFmt numFmtId="187" formatCode="0.00000000_ "/>
-    <numFmt numFmtId="197" formatCode="0.000000000%"/>
-    <numFmt numFmtId="198" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000000%"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.000000000"/>
+    <numFmt numFmtId="181" formatCode="0.0000000"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="0.0000%"/>
+    <numFmt numFmtId="184" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,23 +162,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,11 +1675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1703,27 +1784,27 @@
         <v>a=90.000%</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE("a=", TEXT(C3, "0.000%"))</f>
+        <f t="shared" ref="C5:H5" si="0">CONCATENATE("a=", TEXT(C3, "0.000%"))</f>
         <v>a=90.000%</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("a=", TEXT(D3, "0.000%"))</f>
+        <f t="shared" si="0"/>
         <v>a=99.000%</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE("a=", TEXT(E3, "0.000%"))</f>
+        <f t="shared" si="0"/>
         <v>a=90.000%</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE("a=", TEXT(F3, "0.000%"))</f>
+        <f t="shared" si="0"/>
         <v>a=95.000%</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("a=", TEXT(G3, "0.000%"))</f>
+        <f t="shared" si="0"/>
         <v>a=99.000%</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("a=", TEXT(H3, "0.000%"))</f>
+        <f t="shared" si="0"/>
         <v>a=99.900%</v>
       </c>
       <c r="K5" t="str">
@@ -1736,31 +1817,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <f>POWER(1,1)-POWER(B$2,$A6)</f>
+        <f t="shared" ref="B6:H6" si="1">POWER(1,1)-POWER(B$2,$A6)</f>
         <v>0.9</v>
       </c>
       <c r="C6" s="4">
-        <f>POWER(1,1)-POWER(C$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D6" s="4">
-        <f>POWER(1,1)-POWER(D$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
       <c r="E6" s="4">
-        <f>POWER(1,1)-POWER(E$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="F6" s="4">
-        <f>POWER(1,1)-POWER(F$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="G6" s="4">
-        <f>POWER(1,1)-POWER(G$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
       <c r="H6" s="4">
-        <f>POWER(1,1)-POWER(H$2,$A6)</f>
+        <f t="shared" si="1"/>
         <v>0.999</v>
       </c>
     </row>
@@ -1769,31 +1850,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B9" si="0">POWER(1,1)-POWER(B$2,$A7)</f>
+        <f t="shared" ref="B7:B9" si="2">POWER(1,1)-POWER(B$2,$A7)</f>
         <v>0.99</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:H9" si="1">POWER(1,1)-POWER(C$2,$A7)</f>
+        <f t="shared" ref="C7:H9" si="3">POWER(1,1)-POWER(C$2,$A7)</f>
         <v>0.99</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99749999999999994</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999899999999997</v>
       </c>
     </row>
@@ -1802,31 +1883,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.999</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.999</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.999</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99987499999999996</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999999900000003</v>
       </c>
     </row>
@@ -1835,31 +1916,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999998999999995</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999375000000001</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999998999999995</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999900002</v>
       </c>
     </row>
@@ -1882,27 +1963,27 @@
         <v>a=90.000%</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:G12" si="2">C5</f>
+        <f t="shared" ref="C12:G12" si="4">C5</f>
         <v>a=90.000%</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>a=99.000%</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>a=90.000%</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" ref="F12" si="3">F5</f>
+        <f t="shared" ref="F12" si="5">F5</f>
         <v>a=95.000%</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>a=99.000%</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ref="H12" si="4">H5</f>
+        <f t="shared" ref="H12" si="6">H5</f>
         <v>a=99.900%</v>
       </c>
     </row>
@@ -1924,122 +2005,122 @@
         <v>432</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:H16" si="5">$B$11*POWER(E$2, $A13)</f>
+        <f t="shared" ref="E13:H16" si="7">$B$11*POWER(E$2, $A13)</f>
         <v>4320</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2160.0000000000018</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.2</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14">
-        <f t="shared" ref="A14:A16" si="6">A7</f>
+        <f t="shared" ref="A14:A16" si="8">A7</f>
         <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:D16" si="7">$B$11*POWER(B$2, $A14)</f>
+        <f t="shared" ref="B14:D16" si="9">$B$11*POWER(B$2, $A14)</f>
         <v>432.00000000000006</v>
       </c>
       <c r="C14">
+        <f t="shared" si="9"/>
+        <v>432.00000000000006</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="9"/>
+        <v>4.32</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="7"/>
         <v>432.00000000000006</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <f t="shared" si="7"/>
+        <v>108.00000000000018</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>432.00000000000006</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>108.00000000000018</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>4.32</v>
-      </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3199999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B15">
+        <f t="shared" si="9"/>
+        <v>43.20000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="9"/>
+        <v>43.20000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="9"/>
+        <v>4.3200000000000009E-2</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="7"/>
         <v>43.20000000000001</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <f t="shared" si="7"/>
-        <v>43.20000000000001</v>
-      </c>
-      <c r="D15">
+        <v>5.4000000000000146</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="7"/>
         <v>4.3200000000000009E-2</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>43.20000000000001</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>5.4000000000000146</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>4.3200000000000009E-2</v>
-      </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.32E-5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B16">
+        <f t="shared" si="9"/>
+        <v>4.3200000000000021</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="9"/>
+        <v>4.3200000000000021</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>4.3199999999999998E-4</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="7"/>
         <v>4.3200000000000021</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <f t="shared" si="7"/>
-        <v>4.3200000000000021</v>
-      </c>
-      <c r="D16">
+        <v>0.27000000000000096</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="7"/>
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>4.3200000000000021</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>0.27000000000000096</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>4.3199999999999998E-4</v>
-      </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3199999999999996E-8</v>
       </c>
     </row>
@@ -2108,4 +2189,525 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64BA04C-651F-4856-B606-FBDF548EA6E7}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="A13:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8125" customWidth="1"/>
+    <col min="4" max="5" width="13.6875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.0625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9375" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <f>1-B2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:I3" si="0">1-C2</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9999999999994493E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>9.9999999999988987E-5</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000000000065512E-5</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0000000000287557E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE("a=", TEXT(B2, "0.000%"))</f>
+        <v>a=95.000%</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:H5" si="1">CONCATENATE("a=", TEXT(C2, "0.000%"))</f>
+        <v>a=99.000%</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>a=99.500%</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>a=99.900%</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>a=99.950%</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>a=99.990%</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>a=99.999%</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("a=", TEXT(I2, "0.0000%"))</f>
+        <v>a=99.9999%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <f>1-(1-B$2)^$A6</f>
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:I9" si="2">1-(1-C$2)^$A6</f>
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.995</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>1-(1-B$2)^$A7</f>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99997499999999995</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999974999999997</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999900002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <f>1-(1-B$2)^$A8</f>
+        <v>0.99987499999999996</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999987499999998</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999900000003</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999987499999</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999900002</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <f>1-(1-B$2)^$A9</f>
+        <v>0.99999375000000001</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999937499995</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999900002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999993749</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <f>A11*30*24*60</f>
+        <v>43200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A13" t="str">
+        <f>A5</f>
+        <v>N</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f t="shared" ref="B13:H13" si="3">B5</f>
+        <v>a=95.000%</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.000%</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.500%</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.900%</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.950%</v>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.990%</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>a=99.999%</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="4">I5</f>
+        <v>a=99.9999%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <f>A6</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <f>$A$12*(1-B6)</f>
+        <v>2160.0000000000018</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" ref="C14:H14" si="5">$A$12*(1-C6)</f>
+        <v>432.0000000000004</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="5"/>
+        <v>216.0000000000002</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="5"/>
+        <v>43.200000000000038</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="5"/>
+        <v>21.599999999997621</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="5"/>
+        <v>4.3199999999995242</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.43200000000283012</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" ref="I14" si="6">$A$12*(1-I6)</f>
+        <v>4.3200000001242245E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <f>A7</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15">
+        <f>$A$12*(1-B7)</f>
+        <v>108.0000000000025</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:H15" si="7">$A$12*(1-C7)</f>
+        <v>4.3199999999995242</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0800000000022791</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="7"/>
+        <v>4.3200000001242245E-2</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0800000001509602E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="7"/>
+        <v>4.3200000217069601E-4</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="7"/>
+        <v>4.3200003574384027E-6</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" ref="I15" si="8">$A$12*(1-I7)</f>
+        <v>4.3199044341690751E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <f>A8</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="15">
+        <f>$A$12*(1-B8)</f>
+        <v>5.4000000000018034</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:H16" si="9">$A$12*(1-C8)</f>
+        <v>4.3200000001242245E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="9"/>
+        <v>5.400000000754801E-3</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="9"/>
+        <v>4.3199998778220561E-5</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="9"/>
+        <v>5.4000004467980034E-6</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="9"/>
+        <v>4.3199044341690751E-8</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="9"/>
+        <v>4.3165471197426086E-11</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" ref="I16" si="10">$A$12*(1-I8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <f>A9</f>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15">
+        <f>$A$12*(1-B9)</f>
+        <v>0.26999999999937074</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:H17" si="11">$A$12*(1-C9)</f>
+        <v>4.3200000217069601E-4</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="11"/>
+        <v>2.7000002233990017E-5</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="11"/>
+        <v>4.3199044341690751E-8</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="11"/>
+        <v>2.7002400315723207E-9</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="11"/>
+        <v>4.7961634663806763E-12</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" ref="I17" si="12">$A$12*(1-I9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B19" s="9">
+        <f>B14/60</f>
+        <v>36.000000000000028</v>
+      </c>
+      <c r="C19" s="9">
+        <f>C14/60</f>
+        <v>7.2000000000000064</v>
+      </c>
+      <c r="D19" s="9">
+        <f>D14/60</f>
+        <v>3.6000000000000032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B20" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>